--- a/template/productall.xlsx
+++ b/template/productall.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D33503-0EE1-4764-8947-10724EA37988}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,105 +645,108 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,9 +756,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,59 +771,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -919,7 +913,7 @@
         <xdr:cNvPr id="1025" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -954,8 +948,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -964,7 +958,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C14A5B-E68D-4DF6-9CE3-EBB2DB85DE72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40C14A5B-E68D-4DF6-9CE3-EBB2DB85DE72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +1003,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF9F93-477A-4265-B604-2EEAABB53A9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2BF9F93-477A-4265-B604-2EEAABB53A9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1048,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C81E1C1-63B0-4853-9A2F-9467A8B1AE34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C81E1C1-63B0-4853-9A2F-9467A8B1AE34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1091,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1026"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33566D0-F7C4-4F17-A788-C724A012C851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B33566D0-F7C4-4F17-A788-C724A012C851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1130,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1037"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9BB211-87A0-4102-94D4-AABEEA7A082C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD9BB211-87A0-4102-94D4-AABEEA7A082C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1169,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1048"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B786F83-748C-4676-98CC-BD64FE36C4F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B786F83-748C-4676-98CC-BD64FE36C4F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1208,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1059"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB8CC97-A3DE-462A-91D0-A84A43272FE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AB8CC97-A3DE-462A-91D0-A84A43272FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1247,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1070"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2927B5-FD52-4595-8322-7FC99A133399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB2927B5-FD52-4595-8322-7FC99A133399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1283,7 @@
         <xdr:cNvPr id="8" name="Host Control  2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE363DB9-2EB2-4567-809C-493CC3A3C340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE363DB9-2EB2-4567-809C-493CC3A3C340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1340,7 @@
         <xdr:cNvPr id="9" name="Host Control  13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E570B90D-CC07-4D54-A0D8-FBBF1D9A6552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E570B90D-CC07-4D54-A0D8-FBBF1D9A6552}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1397,7 @@
         <xdr:cNvPr id="10" name="Host Control  24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FE0CD2-E4A3-476F-9D2A-DCC1370991DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11FE0CD2-E4A3-476F-9D2A-DCC1370991DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1454,7 @@
         <xdr:cNvPr id="11" name="Host Control  35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE293AB1-E512-4BCE-88CF-CF69E2421BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE293AB1-E512-4BCE-88CF-CF69E2421BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1511,7 @@
         <xdr:cNvPr id="12" name="Host Control  46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1044A1-56AF-46E8-B303-DB01687FF486}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E1044A1-56AF-46E8-B303-DB01687FF486}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1573,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77BE3CE-FD58-4ACE-82F0-8F92EA73098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F77BE3CE-FD58-4ACE-82F0-8F92EA73098C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,10 +1884,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -1908,84 +1902,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -1994,36 +1988,36 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="67">
         <v>32</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="67">
         <v>34</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="67">
         <v>36</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="67">
         <v>38</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="67">
         <v>40</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="67">
         <v>42</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="67">
         <v>44</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="67">
         <v>46</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -2032,18 +2026,18 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -2057,9 +2051,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
@@ -2073,9 +2067,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="65"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
@@ -2089,9 +2083,9 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
@@ -2105,9 +2099,9 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
@@ -2121,15 +2115,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2139,29 +2133,29 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="49" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -2169,176 +2163,176 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="65"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="65"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="65"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="45" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="44"/>
-      <c r="N18" s="46"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="45" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="46"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="5" t="s">
         <v>71</v>
       </c>
@@ -2346,16 +2340,16 @@
       <c r="F24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -2391,9 +2385,9 @@
       <c r="K25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -2684,6 +2678,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F13:K14"/>
     <mergeCell ref="L4:N6"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A16:C16"/>
@@ -2700,28 +2716,6 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,24 +2725,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="7" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" t="s">
         <v>27</v>
       </c>
@@ -2792,193 +2789,193 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
@@ -2991,202 +2988,202 @@
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3204,7 +3201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3217,14 +3214,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" t="s">
         <v>69</v>
       </c>
@@ -3248,10 +3245,10 @@
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="16" t="s">
         <v>68</v>
       </c>
@@ -3278,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE4D489-EC40-4D54-8535-166DFA065C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3288,27 +3285,27 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -4022,7 +4019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54630630-97F1-4134-823C-7224BA829BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4034,22 +4031,22 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
@@ -4057,11 +4054,11 @@
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
@@ -4111,34 +4108,34 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
@@ -4150,9 +4147,9 @@
       <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
@@ -4177,34 +4174,34 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
@@ -4216,9 +4213,9 @@
       <c r="E16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -4239,34 +4236,34 @@
       <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
@@ -4276,9 +4273,9 @@
       <c r="E22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -4315,34 +4312,34 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
@@ -4367,34 +4364,34 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
@@ -4419,34 +4416,34 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="95"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="95"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="89"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="98"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="20" t="s">
@@ -4458,9 +4455,9 @@
       <c r="E39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="83"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
@@ -4485,34 +4482,34 @@
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
@@ -4529,16 +4526,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A13:H13"/>
@@ -4551,12 +4544,16 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4565,7 +4562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794D4661-C2FA-44C3-8AFA-455A55B2E5DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4578,15 +4575,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -4792,119 +4789,119 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="111"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="111"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="111"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="112"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="111"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="112"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="111"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="112"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="111"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="112"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="112"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="111"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="112"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="112"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="111"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="112"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="112"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="111"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="112"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">

--- a/template/productall.xlsx
+++ b/template/productall.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42F90C4E-81E9-0040-9A81-9FE24D0B280B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="25900" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,8 +256,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,12 +269,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,6 +318,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -327,6 +336,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -645,27 +655,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -729,24 +757,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,6 +781,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,6 +805,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -806,24 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -913,7 +923,7 @@
         <xdr:cNvPr id="1025" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +968,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40C14A5B-E68D-4DF6-9CE3-EBB2DB85DE72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C14A5B-E68D-4DF6-9CE3-EBB2DB85DE72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1013,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2BF9F93-477A-4265-B604-2EEAABB53A9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF9F93-477A-4265-B604-2EEAABB53A9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +1058,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C81E1C1-63B0-4853-9A2F-9467A8B1AE34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C81E1C1-63B0-4853-9A2F-9467A8B1AE34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,7 +1101,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1026"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B33566D0-F7C4-4F17-A788-C724A012C851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33566D0-F7C4-4F17-A788-C724A012C851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1140,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1037"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD9BB211-87A0-4102-94D4-AABEEA7A082C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9BB211-87A0-4102-94D4-AABEEA7A082C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1179,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1048"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B786F83-748C-4676-98CC-BD64FE36C4F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B786F83-748C-4676-98CC-BD64FE36C4F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1218,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1059"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AB8CC97-A3DE-462A-91D0-A84A43272FE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB8CC97-A3DE-462A-91D0-A84A43272FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1257,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1070"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB2927B5-FD52-4595-8322-7FC99A133399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2927B5-FD52-4595-8322-7FC99A133399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1293,7 @@
         <xdr:cNvPr id="8" name="Host Control  2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE363DB9-2EB2-4567-809C-493CC3A3C340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE363DB9-2EB2-4567-809C-493CC3A3C340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1350,7 @@
         <xdr:cNvPr id="9" name="Host Control  13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E570B90D-CC07-4D54-A0D8-FBBF1D9A6552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E570B90D-CC07-4D54-A0D8-FBBF1D9A6552}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1407,7 @@
         <xdr:cNvPr id="10" name="Host Control  24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11FE0CD2-E4A3-476F-9D2A-DCC1370991DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FE0CD2-E4A3-476F-9D2A-DCC1370991DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1464,7 @@
         <xdr:cNvPr id="11" name="Host Control  35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE293AB1-E512-4BCE-88CF-CF69E2421BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE293AB1-E512-4BCE-88CF-CF69E2421BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1521,7 @@
         <xdr:cNvPr id="12" name="Host Control  46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E1044A1-56AF-46E8-B303-DB01687FF486}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1044A1-56AF-46E8-B303-DB01687FF486}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1583,7 @@
         <xdr:cNvPr id="2" name="Host Control  1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F77BE3CE-FD58-4ACE-82F0-8F92EA73098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77BE3CE-FD58-4ACE-82F0-8F92EA73098C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,9 +1684,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1709,6 +1736,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1884,162 +1928,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="14" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="14" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:14" ht="21">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="69" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" customHeight="1">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="69" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" ht="17">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="67">
-        <v>32</v>
-      </c>
-      <c r="D5" s="67">
-        <v>34</v>
-      </c>
-      <c r="E5" s="67">
-        <v>36</v>
-      </c>
-      <c r="F5" s="67">
-        <v>38</v>
-      </c>
-      <c r="G5" s="67">
-        <v>40</v>
-      </c>
-      <c r="H5" s="67">
-        <v>42</v>
-      </c>
-      <c r="I5" s="67">
-        <v>44</v>
-      </c>
-      <c r="J5" s="67">
-        <v>46</v>
-      </c>
-      <c r="K5" s="67" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:14" ht="17">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:14" ht="17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2051,11 +2079,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
+    </row>
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2067,11 +2095,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L8" s="51"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+    </row>
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2083,11 +2111,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L9" s="51"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+    </row>
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2099,11 +2127,11 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L10" s="51"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+    </row>
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2115,15 +2143,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
+      <c r="L11" s="51"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+    </row>
+    <row r="12" spans="1:14" ht="17">
+      <c r="A12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2133,206 +2161,206 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="46" t="s">
+      <c r="L12" s="51"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+    </row>
+    <row r="13" spans="1:14" ht="17">
+      <c r="A13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="45" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
+    </row>
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="66"/>
+    </row>
+    <row r="15" spans="1:14" ht="17">
+      <c r="A15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+    </row>
+    <row r="16" spans="1:14" ht="17">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="63"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="41" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
+    </row>
+    <row r="18" spans="1:14" ht="17">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="55"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="41" t="s">
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
+    </row>
+    <row r="22" spans="1:14" ht="17">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="49"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="44" t="s">
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
+    </row>
+    <row r="24" spans="1:14" ht="17">
+      <c r="A24" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="5" t="s">
         <v>71</v>
       </c>
@@ -2340,56 +2368,40 @@
       <c r="F24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="52"/>
-    </row>
-    <row r="25" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+    </row>
+    <row r="25" spans="1:14" ht="26" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>32</v>
-      </c>
-      <c r="C25" s="3">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3">
-        <v>38</v>
-      </c>
-      <c r="F25" s="3">
-        <v>40</v>
-      </c>
-      <c r="G25" s="3">
-        <v>42</v>
-      </c>
-      <c r="H25" s="3">
-        <v>44</v>
-      </c>
-      <c r="I25" s="3">
-        <v>46</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+    </row>
+    <row r="26" spans="1:14" ht="17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2405,7 +2417,7 @@
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2421,7 +2433,7 @@
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2437,7 +2449,7 @@
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2453,7 +2465,7 @@
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2469,7 +2481,7 @@
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2485,7 +2497,7 @@
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2501,7 +2513,7 @@
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2517,7 +2529,7 @@
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="17">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2533,7 +2545,7 @@
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="17">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2549,7 +2561,7 @@
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="17">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2565,7 +2577,7 @@
       <c r="M36" s="32"/>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="17">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2581,7 +2593,7 @@
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
     </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2597,7 +2609,7 @@
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
     </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="17">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2613,7 +2625,7 @@
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
     </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="17">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2629,7 +2641,7 @@
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
     </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="17">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2645,7 +2657,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="17">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2661,7 +2673,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="17">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2678,12 +2690,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L4:N6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A17:K23"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N25"/>
+    <mergeCell ref="L19:N21"/>
+    <mergeCell ref="L7:N17"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -2700,22 +2722,12 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="F13:K14"/>
-    <mergeCell ref="L4:N6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A17:K23"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N25"/>
-    <mergeCell ref="L19:N21"/>
-    <mergeCell ref="L7:N17"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2725,32 +2737,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="11.75" customWidth="1"/>
+    <col min="1" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +2776,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2790,7 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
@@ -2788,7 +2800,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -2797,7 +2809,7 @@
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="73"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -2806,7 +2818,7 @@
       <c r="F6" s="73"/>
       <c r="G6" s="73"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="73"/>
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
@@ -2815,7 +2827,7 @@
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="73"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -2824,7 +2836,7 @@
       <c r="F8" s="73"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="73"/>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
@@ -2833,7 +2845,7 @@
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="73"/>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -2842,7 +2854,7 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="73"/>
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
@@ -2851,7 +2863,7 @@
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="73"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -2860,7 +2872,7 @@
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="73"/>
       <c r="B13" s="73"/>
       <c r="C13" s="73"/>
@@ -2869,7 +2881,7 @@
       <c r="F13" s="73"/>
       <c r="G13" s="73"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
@@ -2878,7 +2890,7 @@
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -2887,7 +2899,7 @@
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -2896,7 +2908,7 @@
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -2905,7 +2917,7 @@
       <c r="F17" s="73"/>
       <c r="G17" s="73"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2914,7 +2926,7 @@
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -2923,7 +2935,7 @@
       <c r="F19" s="73"/>
       <c r="G19" s="73"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -2932,7 +2944,7 @@
       <c r="F20" s="73"/>
       <c r="G20" s="73"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="73"/>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
@@ -2941,7 +2953,7 @@
       <c r="F21" s="73"/>
       <c r="G21" s="73"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="73"/>
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
@@ -2950,7 +2962,7 @@
       <c r="F22" s="73"/>
       <c r="G22" s="73"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="73"/>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -2959,7 +2971,7 @@
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="73"/>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
@@ -2968,7 +2980,7 @@
       <c r="F24" s="73"/>
       <c r="G24" s="73"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="73"/>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
@@ -2977,7 +2989,7 @@
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
     </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="18">
       <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
@@ -2987,7 +2999,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="73"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
@@ -2996,7 +3008,7 @@
       <c r="F27" s="73"/>
       <c r="G27" s="73"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
@@ -3005,7 +3017,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
@@ -3014,7 +3026,7 @@
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
@@ -3023,7 +3035,7 @@
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -3032,7 +3044,7 @@
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -3041,7 +3053,7 @@
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="73"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -3050,7 +3062,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -3059,7 +3071,7 @@
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -3068,7 +3080,7 @@
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
@@ -3077,7 +3089,7 @@
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -3086,7 +3098,7 @@
       <c r="F37" s="73"/>
       <c r="G37" s="73"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -3095,7 +3107,7 @@
       <c r="F38" s="73"/>
       <c r="G38" s="73"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
@@ -3104,7 +3116,7 @@
       <c r="F39" s="73"/>
       <c r="G39" s="73"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
@@ -3113,7 +3125,7 @@
       <c r="F40" s="73"/>
       <c r="G40" s="73"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
@@ -3122,7 +3134,7 @@
       <c r="F41" s="73"/>
       <c r="G41" s="73"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="74"/>
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
@@ -3131,7 +3143,7 @@
       <c r="F42" s="74"/>
       <c r="G42" s="74"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="74"/>
       <c r="B43" s="74"/>
       <c r="C43" s="74"/>
@@ -3140,7 +3152,7 @@
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="74"/>
       <c r="B44" s="74"/>
       <c r="C44" s="74"/>
@@ -3149,7 +3161,7 @@
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="74"/>
       <c r="B45" s="74"/>
       <c r="C45" s="74"/>
@@ -3158,7 +3170,7 @@
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="74"/>
       <c r="B46" s="74"/>
       <c r="C46" s="74"/>
@@ -3167,7 +3179,7 @@
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="74"/>
       <c r="B47" s="74"/>
       <c r="C47" s="74"/>
@@ -3176,7 +3188,7 @@
       <c r="F47" s="74"/>
       <c r="G47" s="74"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="74"/>
       <c r="B48" s="74"/>
       <c r="C48" s="74"/>
@@ -3201,32 +3213,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="6" width="22.25" customWidth="1"/>
+    <col min="1" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -3241,7 +3253,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
@@ -3275,39 +3287,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="B5" sqref="B5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+    </row>
+    <row r="2" spans="1:19" ht="17">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
@@ -3334,7 +3346,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="17">
       <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
@@ -3361,7 +3373,7 @@
       <c r="R3" s="80"/>
       <c r="S3" s="80"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17">
       <c r="A4" s="76" t="s">
         <v>21</v>
       </c>
@@ -3390,41 +3402,25 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="17">
       <c r="A5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="34">
-        <v>32</v>
-      </c>
+      <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="34">
-        <v>34</v>
-      </c>
+      <c r="D5" s="34"/>
       <c r="E5" s="34"/>
-      <c r="F5" s="34">
-        <v>36</v>
-      </c>
+      <c r="F5" s="34"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="33">
-        <v>38</v>
-      </c>
+      <c r="H5" s="33"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="33">
-        <v>40</v>
-      </c>
+      <c r="J5" s="33"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="33">
-        <v>42</v>
-      </c>
+      <c r="L5" s="33"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="33">
-        <v>44</v>
-      </c>
+      <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="33">
-        <v>46</v>
-      </c>
+      <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="33" t="s">
         <v>25</v>
@@ -3433,7 +3429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3454,7 +3450,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -3475,7 +3471,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3496,7 +3492,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3517,7 +3513,7 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3538,7 +3534,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -3559,7 +3555,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3580,7 +3576,7 @@
       <c r="R12" s="15"/>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3601,7 +3597,7 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -3622,7 +3618,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15">
       <c r="A15" s="36"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3643,7 +3639,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -3664,7 +3660,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3685,7 +3681,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3706,7 +3702,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -3727,7 +3723,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3748,7 +3744,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -3769,7 +3765,7 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -3790,7 +3786,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3811,7 +3807,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3832,7 +3828,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -3853,7 +3849,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3874,7 +3870,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3895,7 +3891,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -3916,7 +3912,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="15"/>
@@ -3937,7 +3933,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="15"/>
@@ -3958,7 +3954,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="15"/>
@@ -3979,7 +3975,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="21"/>
       <c r="B32" s="13"/>
       <c r="C32" s="15"/>
@@ -4019,16 +4015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="73"/>
@@ -4038,7 +4034,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="73" t="s">
@@ -4050,7 +4046,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
@@ -4062,7 +4058,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -4080,7 +4076,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -4095,7 +4091,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
@@ -4107,37 +4103,37 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="20" t="s">
         <v>51</v>
       </c>
@@ -4147,11 +4143,11 @@
       <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4161,7 +4157,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
@@ -4173,37 +4169,37 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -4213,11 +4209,11 @@
       <c r="E16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4225,7 +4221,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="18" t="s">
         <v>54</v>
       </c>
@@ -4235,37 +4231,37 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4273,11 +4269,11 @@
       <c r="E22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -4287,7 +4283,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="18" t="s">
         <v>55</v>
       </c>
@@ -4299,7 +4295,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="25" t="s">
         <v>56</v>
       </c>
@@ -4311,37 +4307,37 @@
       <c r="G25" s="27"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -4351,7 +4347,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
@@ -4363,37 +4359,37 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+    </row>
+    <row r="32" spans="1:8" ht="15">
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="21"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -4403,7 +4399,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="18" t="s">
         <v>58</v>
       </c>
@@ -4415,37 +4411,37 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="87"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="89"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="87"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="89"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="15">
+      <c r="A36" s="93"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="95"/>
+    </row>
+    <row r="37" spans="1:8" ht="15">
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="95"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="96"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="98"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
         <v>51</v>
       </c>
@@ -4455,11 +4451,11 @@
       <c r="E39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="88"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -4469,7 +4465,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="18" t="s">
         <v>59</v>
       </c>
@@ -4481,37 +4477,37 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
@@ -4526,12 +4522,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A13:H13"/>
@@ -4544,16 +4544,12 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4562,30 +4558,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="11.75" customWidth="1"/>
+    <col min="1" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -4600,7 +4596,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
@@ -4615,13 +4611,13 @@
       <c r="F3" s="28"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="99"/>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -4630,7 +4626,7 @@
       <c r="F5" s="100"/>
       <c r="G5" s="101"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="102"/>
       <c r="B6" s="103"/>
       <c r="C6" s="103"/>
@@ -4639,7 +4635,7 @@
       <c r="F6" s="103"/>
       <c r="G6" s="104"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="102"/>
       <c r="B7" s="103"/>
       <c r="C7" s="103"/>
@@ -4648,7 +4644,7 @@
       <c r="F7" s="103"/>
       <c r="G7" s="104"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="102"/>
       <c r="B8" s="103"/>
       <c r="C8" s="103"/>
@@ -4657,7 +4653,7 @@
       <c r="F8" s="103"/>
       <c r="G8" s="104"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="102"/>
       <c r="B9" s="103"/>
       <c r="C9" s="103"/>
@@ -4666,7 +4662,7 @@
       <c r="F9" s="103"/>
       <c r="G9" s="104"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="102"/>
       <c r="B10" s="103"/>
       <c r="C10" s="103"/>
@@ -4675,7 +4671,7 @@
       <c r="F10" s="103"/>
       <c r="G10" s="104"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="105"/>
       <c r="B11" s="106"/>
       <c r="C11" s="106"/>
@@ -4684,7 +4680,7 @@
       <c r="F11" s="106"/>
       <c r="G11" s="107"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4693,7 +4689,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
@@ -4704,7 +4700,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="99"/>
       <c r="B14" s="100"/>
       <c r="C14" s="100"/>
@@ -4713,7 +4709,7 @@
       <c r="F14" s="100"/>
       <c r="G14" s="101"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="102"/>
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
@@ -4722,7 +4718,7 @@
       <c r="F15" s="103"/>
       <c r="G15" s="104"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="102"/>
       <c r="B16" s="103"/>
       <c r="C16" s="103"/>
@@ -4731,7 +4727,7 @@
       <c r="F16" s="103"/>
       <c r="G16" s="104"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="102"/>
       <c r="B17" s="103"/>
       <c r="C17" s="103"/>
@@ -4740,7 +4736,7 @@
       <c r="F17" s="103"/>
       <c r="G17" s="104"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="102"/>
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
@@ -4749,7 +4745,7 @@
       <c r="F18" s="103"/>
       <c r="G18" s="104"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="105"/>
       <c r="B19" s="106"/>
       <c r="C19" s="106"/>
@@ -4758,7 +4754,7 @@
       <c r="F19" s="106"/>
       <c r="G19" s="107"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -4767,7 +4763,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="15" t="s">
         <v>64</v>
       </c>
@@ -4778,7 +4774,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="109"/>
@@ -4787,7 +4783,7 @@
       <c r="F22" s="109"/>
       <c r="G22" s="110"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="111"/>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -4796,7 +4792,7 @@
       <c r="F23" s="73"/>
       <c r="G23" s="112"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="111"/>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
@@ -4805,7 +4801,7 @@
       <c r="F24" s="73"/>
       <c r="G24" s="112"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="111"/>
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
@@ -4814,7 +4810,7 @@
       <c r="F25" s="73"/>
       <c r="G25" s="112"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="111"/>
       <c r="B26" s="73"/>
       <c r="C26" s="73"/>
@@ -4823,7 +4819,7 @@
       <c r="F26" s="73"/>
       <c r="G26" s="112"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="111"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
@@ -4832,7 +4828,7 @@
       <c r="F27" s="73"/>
       <c r="G27" s="112"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="111"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
@@ -4841,7 +4837,7 @@
       <c r="F28" s="73"/>
       <c r="G28" s="112"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="111"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
@@ -4850,7 +4846,7 @@
       <c r="F29" s="73"/>
       <c r="G29" s="112"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="111"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
@@ -4859,7 +4855,7 @@
       <c r="F30" s="73"/>
       <c r="G30" s="112"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="111"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -4868,7 +4864,7 @@
       <c r="F31" s="73"/>
       <c r="G31" s="112"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="111"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -4877,7 +4873,7 @@
       <c r="F32" s="73"/>
       <c r="G32" s="112"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="111"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -4886,7 +4882,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="112"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="111"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -4895,7 +4891,7 @@
       <c r="F34" s="73"/>
       <c r="G34" s="112"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="111"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -4904,7 +4900,7 @@
       <c r="F35" s="73"/>
       <c r="G35" s="112"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="113"/>
       <c r="B36" s="114"/>
       <c r="C36" s="114"/>
